--- a/PIPE OF CA1.xlsx
+++ b/PIPE OF CA1.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lylkendalbuquerque/Documents/GitHub/CA1-2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lylkendalbuquerque/Documents/CCT/1 semester/CA1-2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1742C579-A117-9045-AAEE-BFC123C57586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7A88FB-1AF0-1E4B-8346-0471E88A557F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="880" windowWidth="36580" windowHeight="22180" xr2:uid="{97F5DA0A-3D53-4148-89D2-156F916E4685}"/>
+    <workbookView xWindow="40" yWindow="860" windowWidth="36580" windowHeight="22180" xr2:uid="{97F5DA0A-3D53-4148-89D2-156F916E4685}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$20</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,8 +38,160 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Lylkend Albuquerque</author>
+    <author>tc={54CB272D-987D-C645-B8EB-5CDA7F9A320A}</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{4E4E3D64-8F6A-1442-8A88-79BB4C853250}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lylkend Albuquerque:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Once you done just put OK and the Calculator will say how much you done</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{CDA1F1A1-728D-CB43-B6CE-33BF16A918C5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lylkend Albuquerque:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>here it's about where should I first once all the code has to be explained on our report.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="1" shapeId="0" xr:uid="{54CB272D-987D-C645-B8EB-5CDA7F9A320A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Here is the total of the grades 100 each</t>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{403F5C3E-6A93-8B48-92F7-12659553EE5A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lylkend Albuquerque:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Here is the total of you already had done</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{17411BAA-10ED-1A46-9328-9AD2066A233B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lylkend Albuquerque:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Here is the total of you already had done in % correlated to the total
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <r>
       <t>1.</t>
@@ -102,17 +258,17 @@
   </si>
   <si>
     <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      You must also rationalise justify and detail all the methods used to prepare the data for ML. </t>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      Appropriate visualizations must be used to engender insight into the dataset and to illustrate your final insights gained in your analysis. </t>
     </r>
     <r>
       <rPr>
@@ -123,59 +279,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[0-30]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      Appropriate visualizations must be used to engender insight into the dataset and to illustrate your final insights gained in your analysis. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>[0-20]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      All design and implementation of your visualizations must be justified and detailed in full. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[0-30]</t>
     </r>
   </si>
   <si>
@@ -357,9 +461,6 @@
     <t>1. Summarise your dataset clearly, using relevant descriptive statistics and appropriate plots. These should be carefully motivated and justified, and clearly presented. You should critically analyse your findings, in addition to including the necessary Python code, output and plots in the report. You are required to plot at least three graphs. [0-35]</t>
   </si>
   <si>
-    <t>2.      Use two discrete distributions (Binomial and/or Poisson) in order to explain/identify some information about your dataset. You must explain your reasoning and the techniques you have used. Visualise your data and explain what happens with the large samples in these cases. You must work with Python and your mathematical reasoning must be documented in your report. [0-30]</t>
-  </si>
-  <si>
     <t>3.       Use Normal distribution to explain or identify some information about your dataset. [0-20]</t>
   </si>
   <si>
@@ -448,6 +549,47 @@
   </si>
   <si>
     <t>BOTH</t>
+  </si>
+  <si>
+    <t>DESEPENHO ----&gt;</t>
+  </si>
+  <si>
+    <t>2.      Use two hyperparameter tunning (Binomial and/or Poisson) in order to explain/identify some information about your dataset. You must explain your reasoning and the techniques you have used. Visualise your data and explain what happens with the large samples in these cases. You must work with Python and your mathematical reasoning must be documented in your report. [0-30]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.      You must also rationalise justify and detail all the methods used to prepare the data for ML. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[0-30]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.      All design and implementation of your visualizations must be justified and detailed in full. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[0-30]</t>
+    </r>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -455,9 +597,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -543,6 +685,37 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -581,7 +754,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -596,7 +769,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -605,7 +778,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -614,8 +787,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,6 +811,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Lylkend Albuquerque" id="{694E444B-F378-E049-BB0C-CF6FA30C7D86}" userId="a11360931e56a5fa" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -929,12 +1114,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B20" dT="2023-10-27T15:57:21.82" personId="{694E444B-F378-E049-BB0C-CF6FA30C7D86}" id="{54CB272D-987D-C645-B8EB-5CDA7F9A320A}">
+    <text>Here is the total of the grades 100 each</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0857777-D117-174D-91ED-B36D48AC28F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0857777-D117-174D-91ED-B36D48AC28F8}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -953,61 +1146,75 @@
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>35</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="D3" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4">
         <v>30</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4">
         <v>20</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4">
         <v>15</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="22" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="7"/>
@@ -1021,53 +1228,57 @@
         <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4">
         <v>30</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="D9" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="4">
         <v>20</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4">
         <v>30</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="D11" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="22" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
@@ -1080,42 +1291,54 @@
       <c r="B13" s="4">
         <v>20</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="10"/>
+      <c r="C13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" s="4">
         <v>30</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="10"/>
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" s="4">
         <v>30</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" s="4">
         <v>20</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="22" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="7"/>
@@ -1123,43 +1346,47 @@
     </row>
     <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18" s="4">
         <v>50</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B19" s="4">
         <v>50</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="D19" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="22" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="B20" s="11">
         <f>SUM(B3:B19)</f>
         <v>400</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20">
         <f>SUMIF(C3:C19,"OK",B3:B19)</f>
-        <v>90</v>
+        <v>350</v>
       </c>
       <c r="D20" s="13">
         <f>C20/B20</f>
-        <v>0.22500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1182,6 +1409,176 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:D20" xr:uid="{E0857777-D117-174D-91ED-B36D48AC28F8}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA0AF1F-5886-9248-9891-ED9DCE39AE8F}">
+  <dimension ref="A1:B47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="32.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="14"/>
+    </row>
+    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+    </row>
+    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+    </row>
+    <row r="7" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+    </row>
+    <row r="10" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+    </row>
+    <row r="11" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+    </row>
+    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+    </row>
+    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+    </row>
+    <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+    </row>
+    <row r="16" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+    </row>
+    <row r="18" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+    </row>
+    <row r="19" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+    </row>
+    <row r="20" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+    </row>
+    <row r="21" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+    </row>
+    <row r="22" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+    </row>
+    <row r="23" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+    </row>
+    <row r="24" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+    </row>
+    <row r="25" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+    </row>
+    <row r="27" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+    </row>
+    <row r="29" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+    </row>
+    <row r="30" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+    </row>
+    <row r="31" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+    </row>
+    <row r="32" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+    </row>
+    <row r="33" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+    </row>
+    <row r="34" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+    </row>
+    <row r="35" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+    </row>
+    <row r="36" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+    </row>
+    <row r="38" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+    </row>
+    <row r="40" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+    </row>
+    <row r="41" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+    </row>
+    <row r="42" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+    </row>
+    <row r="43" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+    </row>
+    <row r="44" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+    </row>
+    <row r="45" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+    </row>
+    <row r="46" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+    </row>
+    <row r="47" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
